--- a/MeshFile.xlsx
+++ b/MeshFile.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfredo\Academic\MASTER AERO\B\CFD\ProyectoCFD\CodigoCFD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BE05B27-6E92-46F4-B7E7-EC812394AFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7605A0EC-9528-402D-BBF5-B5D1177FF2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
+    <workbookView xWindow="5676" yWindow="756" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MeshFile" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">MESH Cell </t>
   </si>
@@ -52,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1130,367 +1142,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-ES"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>MeshFile!$A$13:$A$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>MeshFile!$P$5:$P$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.7058806132194273</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7653756168107204</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.998584111770807</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2707429013617189</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.9524500583590001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C866-4EFF-9EEA-4FC97A062E36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="879460960"/>
-        <c:axId val="879461792"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="879460960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="879461792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="879461792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="879460960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1531,563 +1182,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2636,42 +1731,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90286572-CA19-5F3F-314E-C20ABB773D99}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2976,11 +2035,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:Q7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3016,30 +2075,6 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -3069,38 +2104,6 @@
       <c r="I2">
         <v>0.16625999999999999</v>
       </c>
-      <c r="J2">
-        <f>LOG(B2,2)</f>
-        <v>-3.6332553565482195</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:S9" si="0">LOG(C2,2)</f>
-        <v>-3.0061300318440054</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>-2.6690515800777401</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
-        <v>-2.2559422653887773</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="0"/>
-        <v>-2.2528446533563882</v>
-      </c>
-      <c r="O2">
-        <f t="shared" si="0"/>
-        <v>-1.6987635592347683</v>
-      </c>
-      <c r="P2">
-        <f t="shared" si="0"/>
-        <v>-3.0134507182924017</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" si="0"/>
-        <v>-2.588486978234239</v>
-      </c>
       <c r="S2">
         <f>2^-6.666*A2^1.0627</f>
         <v>4.2967808291326258E-2</v>
@@ -3138,44 +2141,12 @@
       <c r="I3">
         <v>0.25141999999999998</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J7" si="1">LOG(B3,2)</f>
-        <v>-1.3064662079436142</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="0"/>
-        <v>-0.724921415676687</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="0"/>
-        <v>-1.8228603570477342</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="0"/>
-        <v>-1.556223629679311</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="0"/>
-        <v>-2.7734914701913205</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="0"/>
-        <v>-2.781206435319326</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="0"/>
-        <v>-2.617675825791455</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>-1.9918286768188784</v>
-      </c>
       <c r="S3">
-        <f t="shared" ref="S3:T7" si="2">2^-6.666*A3^1.0627</f>
+        <f t="shared" ref="S3:S7" si="0">2^-6.666*A3^1.0627</f>
         <v>0.1874788817674857</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T7" si="3">2^-7.4501*A3^1.0188</f>
+        <f t="shared" ref="T3:T7" si="1">2^-7.4501*A3^1.0188</f>
         <v>9.6394857938835676E-2</v>
       </c>
     </row>
@@ -3207,44 +2178,12 @@
       <c r="I4">
         <v>0.90456000000000003</v>
       </c>
-      <c r="J4">
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0.81801545171858658</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="1"/>
-        <v>-0.19201867210577692</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>-0.19042092093100169</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>-3.5801011416828885E-2</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>0.31170073139089755</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>-1.291238890816222</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="0"/>
-        <v>-1.0806065207125235</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>-0.68756716319078137</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>-0.14471189405129886</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="2"/>
-        <v>0.81801545171858658</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="3"/>
         <v>0.39576062826944647</v>
       </c>
     </row>
@@ -3276,44 +2215,12 @@
       <c r="I5">
         <v>3.69773</v>
       </c>
-      <c r="J5">
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>3.569198156836956</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="1"/>
-        <v>1.7288957133480494</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>1.7364923125703691</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>1.656354496658653</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>2.1405790855230964</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>0.66672024005571684</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>0.89148140415852961</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>0.7058806132194273</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>1.8866398862126568</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="2"/>
-        <v>3.569198156836956</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="3"/>
         <v>1.6248426341123867</v>
       </c>
     </row>
@@ -3345,44 +2252,12 @@
       <c r="I6">
         <v>16.760190000000001</v>
       </c>
-      <c r="J6">
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>15.573269986531805</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="1"/>
-        <v>3.8792783829861022</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>3.9237605557972972</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>3.9173009425632244</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>4.2799399839594239</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>2.6660612043488161</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>2.7558553860928394</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>2.7653756168107204</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>4.0669665989666344</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="2"/>
-        <v>15.573269986531805</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="3"/>
         <v>6.6709859370644748</v>
       </c>
     </row>
@@ -3414,133 +2289,13 @@
       <c r="I7">
         <v>76.931129999999996</v>
       </c>
-      <c r="J7">
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>67.949922480163096</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="1"/>
-        <v>6.1755764956615922</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>6.1992812920434908</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>6.2203175711779863</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
-        <v>6.6320429222422037</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>4.8342131432191708</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="0"/>
-        <v>4.987885189512415</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>4.998584111770807</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>6.2654955943594111</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="2"/>
-        <v>67.949922480163096</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="3"/>
         <v>27.388531318802077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f>4^7</f>
-        <v>16384</v>
-      </c>
-      <c r="H8">
-        <v>154.4229</v>
-      </c>
-      <c r="I8">
-        <v>413.75</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>7.2707429013617189</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>8.692615501694581</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f>4^8</f>
-        <v>65536</v>
-      </c>
-      <c r="H9">
-        <v>990.8</v>
-      </c>
-      <c r="I9">
-        <v>2622.5034999999998</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>9.9524500583590001</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>11.356728982890473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f>LOG(A2,2)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f>LOG(A3,2)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f>LOG(A4,2)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f>LOG(A5,2)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f>LOG(A6,2)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f>LOG(A7,2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" ref="A16:A17" si="4">LOG(A8,2)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="4"/>
-        <v>16</v>
       </c>
     </row>
   </sheetData>
